--- a/data/differentdata.xlsx
+++ b/data/differentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\eclipse-workspacenew\MultipleDataReading\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A3145C-DCAB-4E3C-A6FD-92D1332FCF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47AD66-5CF0-4F53-B5C8-7D2388680FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>empdetails</t>
   </si>
@@ -57,9 +57,6 @@
     <t>dinavahi</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -96,34 +93,7 @@
     <t>Kola</t>
   </si>
   <si>
-    <t>Wellsfargo</t>
-  </si>
-  <si>
     <t>Tester</t>
-  </si>
-  <si>
-    <t>Synechron</t>
-  </si>
-  <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Access1</t>
-  </si>
-  <si>
-    <t>Access2</t>
-  </si>
-  <si>
-    <t>Access3</t>
-  </si>
-  <si>
-    <t>Access4</t>
-  </si>
-  <si>
-    <t>Access5</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
   <si>
     <t>12345</t>
@@ -448,7 +418,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,10 +471,10 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>90000</v>
@@ -515,19 +485,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>60000</v>
@@ -538,22 +508,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -561,19 +531,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
